--- a/Input/EA_Testdata.xlsx
+++ b/Input/EA_Testdata.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -52,17 +52,17 @@
     <t>Repositoryname</t>
   </si>
   <si>
-    <t>srchanga</t>
-  </si>
-  <si>
     <t>Your repository @ was successfully deleted.</t>
+  </si>
+  <si>
+    <t>githubgeeth</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,6 +99,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -145,7 +153,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -177,9 +185,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -211,6 +220,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -386,24 +396,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="40.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -426,7 +437,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -443,10 +454,10 @@
         <v>11</v>
       </c>
       <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
         <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
